--- a/Ciclo II/Pruebas/PDMaestroDocumentos.xlsx
+++ b/Ciclo II/Pruebas/PDMaestroDocumentos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\METFOR\METFOR\Ciclo II\Implementacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\METFOR\METFOR\Ciclo II\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="130">
   <si>
     <t>METFOR</t>
   </si>
@@ -370,13 +370,61 @@
   </si>
   <si>
     <t>Mdocumentos</t>
+  </si>
+  <si>
+    <t>PRUEBAS</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitácora de pruebas Líder de Desarrollo</t>
+  </si>
+  <si>
+    <t>Bitácora de  pruebas Líder de Soporte</t>
+  </si>
+  <si>
+    <t>Bitácora de pruebas Líder de Arquitectura</t>
+  </si>
+  <si>
+    <t>Bitácora de pruebas Líder de Planeación</t>
+  </si>
+  <si>
+    <t>Bitácora de pruebaas Líder de Calidad</t>
+  </si>
+  <si>
+    <t>Bitácora de pruebas Líder de Equipo</t>
+  </si>
+  <si>
+    <t>Control de Asignaciones pruebas</t>
+  </si>
+  <si>
+    <t>Log de defectos de pruebas</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias de pruebas</t>
+  </si>
+  <si>
+    <t>Maestro de documentos de pruebas</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>CasosDeUso</t>
+  </si>
+  <si>
+    <t>Manual de usuario</t>
+  </si>
+  <si>
+    <t>ManualUSuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +494,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -467,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -651,43 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -803,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -853,99 +872,106 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,22 +979,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1366,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J102"/>
+  <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:H84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,36 +1473,36 @@
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
@@ -1782,24 +1804,24 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
@@ -2377,24 +2399,24 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="52"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="55"/>
     </row>
     <row r="58" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
@@ -2650,27 +2672,27 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -2693,7 +2715,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2716,7 +2738,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="17" t="s">
@@ -2739,7 +2761,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -2762,7 +2784,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -2785,7 +2807,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -2808,7 +2830,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -2831,7 +2853,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="64" t="s">
+      <c r="B78" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -2854,7 +2876,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -2877,7 +2899,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -2900,16 +2922,16 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="32" t="s">
         <v>106</v>
       </c>
       <c r="F81" s="13">
@@ -2923,16 +2945,16 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="64" t="s">
+      <c r="B82" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C82" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E82" s="32" t="s">
         <v>107</v>
       </c>
       <c r="F82" s="13">
@@ -2946,19 +2968,19 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="64" t="s">
+      <c r="B83" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E83" s="59" t="s">
+      <c r="E83" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="F83" s="59">
+      <c r="F83" s="32">
         <v>2</v>
       </c>
       <c r="G83" s="14" t="s">
@@ -2969,19 +2991,19 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="59" t="s">
+      <c r="C84" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="59" t="s">
+      <c r="D84" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="59" t="s">
+      <c r="E84" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="32">
         <v>2</v>
       </c>
       <c r="G84" s="14" t="s">
@@ -2991,60 +3013,425 @@
         <v>41</v>
       </c>
     </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="52"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="53"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="55"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="13">
+        <v>2</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="13">
+        <v>3</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="13">
+        <v>3</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="13">
+        <v>2</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="13">
+        <v>3</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="13">
+        <v>3</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="13">
+        <v>2</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="13">
+        <v>3</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="13">
+        <v>2</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="13">
+        <v>3</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="13">
+        <v>3</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F98" s="32">
+        <v>2</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" s="32">
+        <v>2</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="32">
+        <v>2</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="32">
+        <v>2</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="8" t="s">
+      <c r="C113" s="64"/>
+      <c r="D113" s="65"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="24">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="24">
         <v>43214</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C115" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D115" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="24">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="24">
         <v>43214</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C116" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D99" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="2" t="s">
+      <c r="D116" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B14:H53"/>
-  <mergeCells count="11">
-    <mergeCell ref="B96:D96"/>
+  <mergeCells count="12">
+    <mergeCell ref="B113:D113"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
@@ -3055,6 +3442,7 @@
     <mergeCell ref="B29:H30"/>
     <mergeCell ref="B56:H57"/>
     <mergeCell ref="B69:H70"/>
+    <mergeCell ref="B85:H86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3079,164 +3467,164 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
@@ -3363,133 +3751,133 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="7" t="s">
         <v>12</v>
       </c>
